--- a/Mijanur_cv.xlsx
+++ b/Mijanur_cv.xlsx
@@ -17,12 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>資格欄</t>
-  </si>
-  <si>
-    <t>取得年月日</t>
   </si>
   <si>
     <t>備考</t>
@@ -38,16 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特記事項</t>
-    <rPh sb="0" eb="2">
-      <t>ﾄｯｷ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ｼﾞｺｳ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>業　務　経　歴　書</t>
     <rPh sb="0" eb="1">
       <t>ｷﾞｮｳ</t>
@@ -71,13 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>経験年数：３ 年 ３ヶ月</t>
-    <rPh sb="9" eb="10">
-      <t>ｹﾞﾂ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>　英語:上級　日本語:初級</t>
     <rPh sb="4" eb="6">
       <t>ｼﾞｮｳｷｭｳ</t>
@@ -85,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最終学歴：　　大学(Universtiy of Madras,India)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>氏名：エムディ　ミジャヌル　ラハマン</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,11 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">フレームワーク： Laravel, CakePHP, CodeIgniter, Wordpress, Magento
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>開発知識：　テンプレートデザイン, ウェブサイト開発</t>
     <rPh sb="0" eb="2">
       <t>かいはつ</t>
@@ -148,6 +119,19 @@
     <rPh sb="4" eb="5">
       <t>ねん</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終学歴：　　UTTARA UNIVERSITY, DHAKA, BANGLADESH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">フレームワーク： Laravel, CakePHP, CodeIgniter, Wordpress, Magento
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       経験年数：5 年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,40 +151,36 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -241,40 +221,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -411,15 +361,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -467,108 +408,120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -963,266 +916,262 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="7" customWidth="1"/>
+    <col min="5" max="8" width="9" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="14" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" hidden="1" customHeight="1"/>
-    <row r="20" spans="1:8" ht="12" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1"/>
-    <row r="23" spans="1:8" ht="12" customHeight="1"/>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:8" ht="24.75" customHeight="1"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A2:C2"/>
@@ -1230,16 +1179,16 @@
     <mergeCell ref="D2:H3"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ Ｐ明朝,標準"&amp;9&amp;P / &amp;N</oddFooter>
   </headerFooter>
